--- a/data/trans_camb/IP15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>14,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-14,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-13,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-11,49</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-9,3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>5,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 4,61</t>
+          <t>-25,38; 8,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,04</t>
+          <t>-22,79; 14,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 11,59</t>
+          <t>-9,86; 39,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 4,72</t>
+          <t>-39,29; 12,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 5,79</t>
+          <t>-40,22; 13,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 6,51</t>
+          <t>-31,24; 20,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 2,86</t>
+          <t>-28,81; 3,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 3,48</t>
+          <t>-26,13; 6,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 7,63</t>
+          <t>-12,14; 23,07</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>-44,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-27,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>74,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>-34,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>-32,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>-13,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-38,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,61%</t>
+          <t>-30,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>17,08%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 28,15</t>
+          <t>-100,0; 140,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 24,28</t>
+          <t>-85,3; 231,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 71,71</t>
+          <t>-45,27; 433,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 26,62</t>
+          <t>-72,67; 37,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 31,76</t>
+          <t>-71,65; 50,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 35,16</t>
+          <t>-57,71; 70,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 15,76</t>
+          <t>-71,9; 18,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 18,43</t>
+          <t>-67,43; 34,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 40,33</t>
+          <t>-34,16; 107,09</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,84</t>
+          <t>-7,49; 4,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 2,73</t>
+          <t>-7,1; 4,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 6,72</t>
+          <t>-1,4; 11,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 13,5</t>
+          <t>-8,55; 4,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 9,49</t>
+          <t>-7,06; 5,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 11,34</t>
+          <t>-7,75; 6,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,05</t>
+          <t>-5,65; 2,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,1</t>
+          <t>-5,2; 3,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 7,0</t>
+          <t>-2,24; 7,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,55%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,98%</t>
+          <t>-5,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>12,27%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 73,4</t>
+          <t>-33,41; 28,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,76; 16,6</t>
+          <t>-30,41; 24,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 43,44</t>
+          <t>-6,0; 71,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 140,62</t>
+          <t>-32,42; 26,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 103,56</t>
+          <t>-27,39; 31,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 112,57</t>
+          <t>-31,87; 35,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,68; 74,59</t>
+          <t>-25,44; 15,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 30,84</t>
+          <t>-23,02; 18,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 51,93</t>
+          <t>-10,21; 40,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-14,8</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,9</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,49</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>11,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 8,71</t>
+          <t>-10,16; 5,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 14,38</t>
+          <t>-14,69; 0,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 39,5</t>
+          <t>-1,12; 15,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-39,29; 12,12</t>
+          <t>-4,66; 10,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 13,03</t>
+          <t>-7,55; 6,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,24; 20,56</t>
+          <t>8,24; 28,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 3,49</t>
+          <t>-4,05; 5,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 6,86</t>
+          <t>-8,64; 1,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 23,07</t>
+          <t>5,74; 19,44</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-44,63%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,06%</t>
+          <t>-28,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-34,69%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-32,58%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,26%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-38,2%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-30,92%</t>
+          <t>-18,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>56,83%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 140,27</t>
+          <t>-35,24; 31,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-85,3; 231,33</t>
+          <t>-50,84; 3,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 433,21</t>
+          <t>-4,26; 80,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,67; 37,78</t>
+          <t>-20,37; 68,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,65; 50,66</t>
+          <t>-34,78; 43,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 70,07</t>
+          <t>38,46; 204,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,9; 18,3</t>
+          <t>-17,31; 33,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-67,43; 34,92</t>
+          <t>-37,0; 5,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 107,09</t>
+          <t>24,03; 101,91</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,92</t>
+          <t>2,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 5,93</t>
+          <t>-2,66; 10,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 0,52</t>
+          <t>-9,39; 2,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 15,86</t>
+          <t>-5,98; 6,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 10,02</t>
+          <t>1,18; 13,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 6,26</t>
+          <t>-2,23; 9,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,24; 28,98</t>
+          <t>-0,28; 11,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 5,96</t>
+          <t>1,24; 10,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 1,02</t>
+          <t>-4,13; 4,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,74; 19,44</t>
+          <t>-1,77; 7,0</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-28,91%</t>
+          <t>-21,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>61,98%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-18,1%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>17,88%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 31,03</t>
+          <t>-11,47; 73,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 3,9</t>
+          <t>-45,76; 16,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 80,97</t>
+          <t>-27,84; 43,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 68,32</t>
+          <t>3,62; 140,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 43,09</t>
+          <t>-15,9; 103,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>38,46; 204,65</t>
+          <t>-3,56; 112,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 33,13</t>
+          <t>6,68; 74,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 5,01</t>
+          <t>-24,03; 30,84</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,03; 101,91</t>
+          <t>-10,17; 51,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 8,71</t>
+          <t>-26,54; 8,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 14,38</t>
+          <t>-23,88; 12,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 39,5</t>
+          <t>-11,05; 41,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,29; 12,12</t>
+          <t>-38,45; 9,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 13,03</t>
+          <t>-38,03; 11,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,24; 20,56</t>
+          <t>-28,75; 23,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 3,49</t>
+          <t>-27,39; 4,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 6,86</t>
+          <t>-25,25; 6,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 23,07</t>
+          <t>-13,11; 25,04</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 140,27</t>
+          <t>-100,0; 130,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,3; 231,33</t>
+          <t>-89,34; 156,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 433,21</t>
+          <t>-49,61; 441,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,67; 37,78</t>
+          <t>-73,27; 35,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,65; 50,66</t>
+          <t>-74,55; 37,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 70,07</t>
+          <t>-55,18; 88,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,9; 18,3</t>
+          <t>-71,02; 24,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,43; 34,92</t>
+          <t>-67,04; 33,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 107,09</t>
+          <t>-36,66; 115,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 13,82</t>
+          <t>-2,95; 15,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 5,6</t>
+          <t>-9,67; 6,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 9,81</t>
+          <t>-8,48; 8,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 10,55</t>
+          <t>-7,2; 10,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 5,54</t>
+          <t>-12,36; 4,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 6,94</t>
+          <t>-10,03; 6,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 9,79</t>
+          <t>-2,11; 9,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 2,37</t>
+          <t>-8,15; 3,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 5,74</t>
+          <t>-6,57; 5,45</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 93,88</t>
+          <t>-14,51; 107,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 36,97</t>
+          <t>-43,78; 42,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 69,58</t>
+          <t>-37,65; 59,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 66,06</t>
+          <t>-31,06; 66,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,51; 37,19</t>
+          <t>-50,89; 25,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 44,27</t>
+          <t>-42,27; 44,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 58,85</t>
+          <t>-9,9; 56,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 14,88</t>
+          <t>-37,28; 18,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 34,58</t>
+          <t>-30,09; 31,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 4,61</t>
+          <t>-7,25; 4,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,04</t>
+          <t>-7,23; 4,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 11,59</t>
+          <t>-1,5; 11,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 4,72</t>
+          <t>-8,06; 5,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 5,79</t>
+          <t>-6,38; 5,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 6,51</t>
+          <t>-7,42; 6,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 2,86</t>
+          <t>-5,82; 2,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 3,48</t>
+          <t>-5,93; 3,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 7,63</t>
+          <t>-2,06; 7,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 28,15</t>
+          <t>-31,97; 31,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 24,28</t>
+          <t>-31,53; 31,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 71,71</t>
+          <t>-6,97; 67,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 26,62</t>
+          <t>-32,43; 29,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 31,76</t>
+          <t>-26,89; 33,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 35,16</t>
+          <t>-30,79; 32,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 15,76</t>
+          <t>-25,65; 15,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 18,43</t>
+          <t>-25,75; 16,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 40,33</t>
+          <t>-9,89; 38,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 5,93</t>
+          <t>-8,74; 5,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 0,52</t>
+          <t>-14,03; 0,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 15,86</t>
+          <t>-0,39; 16,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 10,02</t>
+          <t>-4,69; 9,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 6,26</t>
+          <t>-7,95; 6,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,24; 28,98</t>
+          <t>7,8; 27,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 5,96</t>
+          <t>-4,65; 5,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 1,02</t>
+          <t>-8,48; 1,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 19,44</t>
+          <t>6,07; 18,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 31,03</t>
+          <t>-31,9; 28,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 3,9</t>
+          <t>-51,6; 4,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 80,97</t>
+          <t>-1,74; 86,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 68,32</t>
+          <t>-22,11; 66,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 43,09</t>
+          <t>-36,26; 41,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,46; 204,65</t>
+          <t>33,59; 182,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 33,13</t>
+          <t>-19,09; 32,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 5,01</t>
+          <t>-36,22; 9,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,03; 101,91</t>
+          <t>25,82; 100,51</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,84</t>
+          <t>-1,82; 11,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 2,73</t>
+          <t>-9,96; 2,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 6,72</t>
+          <t>-6,47; 6,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 13,5</t>
+          <t>1,71; 13,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 9,49</t>
+          <t>-2,2; 9,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 11,34</t>
+          <t>-0,32; 12,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,05</t>
+          <t>1,09; 10,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,1</t>
+          <t>-4,8; 3,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 7,0</t>
+          <t>-1,7; 7,48</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 73,4</t>
+          <t>-9,11; 76,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,76; 16,6</t>
+          <t>-46,43; 17,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 43,44</t>
+          <t>-30,31; 39,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,62; 140,62</t>
+          <t>10,49; 141,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 103,56</t>
+          <t>-15,88; 99,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 112,57</t>
+          <t>-4,16; 128,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,68; 74,59</t>
+          <t>6,07; 78,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 30,84</t>
+          <t>-26,87; 27,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 51,93</t>
+          <t>-10,77; 55,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,37</t>
+          <t>-2,27; 4,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,64; -0,23</t>
+          <t>-6,77; 0,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 7,46</t>
+          <t>0,3; 7,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 6,0</t>
+          <t>-1,2; 5,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,73</t>
+          <t>-3,75; 2,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,86</t>
+          <t>1,79; 10,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,24</t>
+          <t>-0,59; 4,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,37</t>
+          <t>-4,42; 0,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,81</t>
+          <t>2,01; 7,61</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 23,94</t>
+          <t>-10,74; 26,4</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -1,01</t>
+          <t>-31,09; 0,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 39,73</t>
+          <t>1,01; 40,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 35,93</t>
+          <t>-6,07; 36,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 16,14</t>
+          <t>-19,25; 17,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>7,84; 58,69</t>
+          <t>8,7; 58,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 23,55</t>
+          <t>-2,68; 23,63</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 2,04</t>
+          <t>-21,28; 2,35</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,14; 43,13</t>
+          <t>10,23; 43,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 8,47</t>
+          <t>-26,33; 10,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 12,47</t>
+          <t>-23,73; 13,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 41,04</t>
+          <t>-12,43; 40,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 9,87</t>
+          <t>-39,87; 9,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 11,26</t>
+          <t>-39,26; 11,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 23,99</t>
+          <t>-31,21; 17,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 4,12</t>
+          <t>-26,79; 3,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 6,53</t>
+          <t>-25,15; 6,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 25,04</t>
+          <t>-12,29; 23,75</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 130,5</t>
+          <t>-91,24; 197,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-89,34; 156,36</t>
+          <t>-86,91; 211,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,61; 441,49</t>
+          <t>-46,86; 461,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,27; 35,24</t>
+          <t>-75,59; 38,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,55; 37,5</t>
+          <t>-75,04; 40,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 88,5</t>
+          <t>-61,06; 62,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,02; 24,38</t>
+          <t>-71,61; 22,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 33,07</t>
+          <t>-65,53; 32,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 115,82</t>
+          <t>-33,95; 106,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 15,08</t>
+          <t>-3,11; 13,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 6,33</t>
+          <t>-9,44; 6,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 8,56</t>
+          <t>-8,42; 8,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 10,77</t>
+          <t>-7,22; 9,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 4,17</t>
+          <t>-12,07; 4,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 6,97</t>
+          <t>-10,42; 6,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 9,69</t>
+          <t>-2,28; 9,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 3,05</t>
+          <t>-8,83; 2,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 5,45</t>
+          <t>-6,56; 5,86</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 107,71</t>
+          <t>-15,4; 86,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 42,11</t>
+          <t>-43,63; 39,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,65; 59,15</t>
+          <t>-41,19; 55,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 66,75</t>
+          <t>-28,9; 64,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,89; 25,8</t>
+          <t>-50,03; 28,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 44,27</t>
+          <t>-44,19; 43,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 56,91</t>
+          <t>-10,46; 58,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 18,85</t>
+          <t>-39,7; 17,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 31,4</t>
+          <t>-29,76; 38,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 4,92</t>
+          <t>-7,69; 4,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 4,87</t>
+          <t>-7,57; 4,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 11,33</t>
+          <t>-0,77; 11,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 5,29</t>
+          <t>-7,98; 4,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 5,96</t>
+          <t>-6,99; 5,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 6,18</t>
+          <t>-7,02; 6,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 2,85</t>
+          <t>-6,18; 3,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 3,08</t>
+          <t>-5,38; 3,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,15</t>
+          <t>-2,03; 7,12</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 31,37</t>
+          <t>-33,49; 27,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 31,25</t>
+          <t>-33,52; 29,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 67,95</t>
+          <t>-3,14; 71,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 29,29</t>
+          <t>-31,93; 26,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 33,8</t>
+          <t>-28,42; 30,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 32,18</t>
+          <t>-29,92; 34,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 15,4</t>
+          <t>-26,6; 16,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 16,74</t>
+          <t>-23,51; 17,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 38,55</t>
+          <t>-9,52; 38,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 5,47</t>
+          <t>-9,26; 6,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 0,77</t>
+          <t>-14,17; 0,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 16,69</t>
+          <t>-1,21; 17,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 9,78</t>
+          <t>-4,04; 10,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 6,16</t>
+          <t>-6,76; 6,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,8; 27,86</t>
+          <t>7,75; 28,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 5,75</t>
+          <t>-4,24; 5,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 1,54</t>
+          <t>-8,87; 0,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 18,85</t>
+          <t>6,04; 19,16</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 28,73</t>
+          <t>-33,78; 33,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 4,17</t>
+          <t>-50,03; 2,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 86,41</t>
+          <t>-5,08; 87,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 66,96</t>
+          <t>-18,38; 71,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 41,42</t>
+          <t>-31,72; 47,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,59; 182,65</t>
+          <t>34,15; 185,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 32,19</t>
+          <t>-18,3; 30,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 9,03</t>
+          <t>-37,46; 4,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,82; 100,51</t>
+          <t>25,62; 103,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 11,41</t>
+          <t>-1,91; 11,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 2,37</t>
+          <t>-9,83; 1,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 6,47</t>
+          <t>-6,58; 6,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,71; 13,58</t>
+          <t>1,74; 13,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 9,26</t>
+          <t>-1,85; 9,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 12,2</t>
+          <t>-0,43; 11,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,41</t>
+          <t>1,54; 10,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,74</t>
+          <t>-4,73; 3,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 7,48</t>
+          <t>-1,69; 7,19</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 76,18</t>
+          <t>-9,51; 70,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,43; 17,61</t>
+          <t>-46,56; 10,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 39,87</t>
+          <t>-29,95; 46,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,49; 141,44</t>
+          <t>10,19; 137,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 99,66</t>
+          <t>-12,87; 95,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 128,92</t>
+          <t>-3,76; 118,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,07; 78,15</t>
+          <t>9,29; 77,5</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 27,92</t>
+          <t>-26,68; 26,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 55,1</t>
+          <t>-10,22; 52,69</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 4,83</t>
+          <t>-2,37; 4,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,04</t>
+          <t>-6,52; -0,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,4</t>
+          <t>0,36; 7,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,92</t>
+          <t>-1,27; 5,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,91</t>
+          <t>-3,73; 3,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,21</t>
+          <t>1,39; 9,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,22</t>
+          <t>-0,9; 4,24</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,42</t>
+          <t>-4,28; 0,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,61</t>
+          <t>1,76; 7,71</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 26,4</t>
+          <t>-11,2; 24,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 0,15</t>
+          <t>-30,17; -0,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1,01; 40,4</t>
+          <t>1,53; 42,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 36,04</t>
+          <t>-6,26; 35,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 17,3</t>
+          <t>-18,41; 18,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,7; 58,87</t>
+          <t>6,23; 57,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 23,63</t>
+          <t>-4,41; 23,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 2,35</t>
+          <t>-20,74; 1,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,23; 43,2</t>
+          <t>8,27; 42,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP15-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,8</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,9</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,49</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 10,06</t>
+          <t>-9,57; 6,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 13,35</t>
+          <t>-14,14; 2,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 40,82</t>
+          <t>-9,93; 7,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 9,62</t>
+          <t>-4,33; 11,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 11,72</t>
+          <t>-9,41; 4,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 17,54</t>
+          <t>-8,0; 9,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 3,21</t>
+          <t>-4,14; 6,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 6,86</t>
+          <t>-9,24; 1,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 23,75</t>
+          <t>-5,69; 5,91</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-44,63%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-27,06%</t>
+          <t>-22,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,69%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,58%</t>
+          <t>-12,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,26%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-38,2%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-30,92%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>-1,48%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-91,24; 197,82</t>
+          <t>-35,21; 35,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,91; 211,98</t>
+          <t>-49,23; 17,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,86; 461,76</t>
+          <t>-36,08; 35,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 38,26</t>
+          <t>-20,19; 73,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,04; 40,69</t>
+          <t>-42,22; 31,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,06; 62,95</t>
+          <t>-37,3; 57,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,61; 22,27</t>
+          <t>-17,91; 38,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,53; 32,72</t>
+          <t>-39,69; 8,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 106,63</t>
+          <t>-24,82; 32,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>3,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 13,31</t>
+          <t>-8,55; 4,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 6,04</t>
+          <t>-7,06; 5,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 8,37</t>
+          <t>-5,79; 11,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 9,78</t>
+          <t>-7,49; 4,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 4,41</t>
+          <t>-7,1; 4,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 6,71</t>
+          <t>-0,79; 12,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 9,63</t>
+          <t>-5,65; 2,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 2,63</t>
+          <t>-5,2; 3,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 5,86</t>
+          <t>-1,05; 9,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>-5,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,86%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,32%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>19,27%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 86,29</t>
+          <t>-32,42; 26,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 39,14</t>
+          <t>-27,39; 31,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 55,96</t>
+          <t>-24,28; 60,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 64,59</t>
+          <t>-33,41; 28,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,03; 28,38</t>
+          <t>-30,41; 24,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 43,23</t>
+          <t>-3,73; 77,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 58,57</t>
+          <t>-25,44; 15,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 17,03</t>
+          <t>-23,02; 18,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 38,92</t>
+          <t>-4,75; 51,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>23,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>15,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 4,33</t>
+          <t>-4,66; 10,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 4,72</t>
+          <t>-7,55; 6,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 11,3</t>
+          <t>10,17; 49,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 4,68</t>
+          <t>-10,16; 5,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 5,49</t>
+          <t>-14,69; 0,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 6,26</t>
+          <t>-1,36; 15,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 3,01</t>
+          <t>-4,05; 5,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 3,15</t>
+          <t>-8,64; 1,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,12</t>
+          <t>7,06; 30,92</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>126,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>-28,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,61%</t>
+          <t>-18,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>72,05%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 27,03</t>
+          <t>-20,37; 68,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 29,1</t>
+          <t>-34,78; 43,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 71,17</t>
+          <t>49,52; 352,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 26,81</t>
+          <t>-35,24; 31,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 30,69</t>
+          <t>-50,84; 3,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 34,24</t>
+          <t>-4,87; 83,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 16,48</t>
+          <t>-17,31; 33,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 17,92</t>
+          <t>-37,0; 5,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 38,74</t>
+          <t>29,98; 153,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,92</t>
+          <t>2,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 6,55</t>
+          <t>1,18; 13,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 0,06</t>
+          <t>-2,23; 9,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 17,05</t>
+          <t>-0,0; 11,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 10,13</t>
+          <t>-2,66; 10,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 6,69</t>
+          <t>-9,39; 2,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 28,28</t>
+          <t>-5,81; 6,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 5,79</t>
+          <t>1,24; 10,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 0,87</t>
+          <t>-4,13; 4,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 19,16</t>
+          <t>-1,68; 7,24</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>61,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-28,91%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>48,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>-21,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>-0,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-18,1%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>19,23%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 33,51</t>
+          <t>3,62; 140,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,03; 2,32</t>
+          <t>-15,9; 103,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 87,65</t>
+          <t>-2,46; 114,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 71,45</t>
+          <t>-11,47; 73,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 47,32</t>
+          <t>-45,76; 16,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,15; 185,18</t>
+          <t>-26,96; 44,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 30,91</t>
+          <t>6,68; 74,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 4,64</t>
+          <t>-24,03; 30,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,62; 103,34</t>
+          <t>-8,9; 54,61</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>6,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 11,13</t>
+          <t>-0,75; 6,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 1,77</t>
+          <t>-3,84; 2,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 6,88</t>
+          <t>3,55; 18,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 13,55</t>
+          <t>-2,38; 4,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 9,67</t>
+          <t>-6,64; -0,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 11,93</t>
+          <t>-0,55; 7,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,1</t>
+          <t>-0,93; 4,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,62</t>
+          <t>-4,4; 0,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 7,19</t>
+          <t>3,2; 11,67</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-21,55%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>61,98%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>-16,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-9,79%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>31,87%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 70,56</t>
+          <t>-3,71; 35,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 10,71</t>
+          <t>-19,16; 16,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,95; 46,25</t>
+          <t>17,95; 107,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,19; 137,11</t>
+          <t>-10,96; 23,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 95,88</t>
+          <t>-30,26; -1,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 118,37</t>
+          <t>-2,16; 41,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,29; 77,5</t>
+          <t>-4,57; 23,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 26,3</t>
+          <t>-21,61; 2,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 52,69</t>
+          <t>15,68; 61,83</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-3,36</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 4,47</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; -0,04</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 7,64</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 5,97</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 3,24</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 9,89</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 4,24</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 0,27</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 7,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>5,89%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-16,89%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>19,51%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>12,84%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-1,65%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>29,02%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>9,12%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-9,79%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>23,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-11,2; 24,1</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-30,17; -0,16</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 42,25</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 35,99</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-18,41; 18,93</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 57,59</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 23,35</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-20,74; 1,5</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>8,27; 42,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
